--- a/similarities/split_global/harmonic_similarity_timestamps_29.xlsx
+++ b/similarities/split_global/harmonic_similarity_timestamps_29.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:L16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -484,686 +484,750 @@
           <t>spotify_uri_track_2</t>
         </is>
       </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Is the shared pattern good for the demo? (Yes/No)</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Rate the goodness of the shared pattern (from 1 to 5)</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>isophonics_274</t>
+          <t>schubert-winterreise_153</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>isophonics_64</t>
+          <t>schubert-winterreise_9</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[['Db', 'Ab', 'Db', 'Ab', 'Db', 'Ab', 'Db', 'Ab', 'Db', 'Ab', 'Db', 'Ab', 'Db', 'Ab', 'Db', 'Ab']]</t>
+          <t>['G:maj/D', 'D:7', 'G:maj', 'G:min']</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>[['D', 'A', 'D', 'A', 'D', 'A', 'D', 'A', 'D', 'A', 'D', 'A', 'D', 'A', 'D', 'A']]</t>
+          <t>['F:maj/A', 'C:7', 'F:maj', 'F:min']</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>[('0:02:07.449092', '0:02:19.418979')]</t>
+          <t>('0:01:00.120000', '0:01:03.420000')</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>[('0:03:12.882000', '0:04:13.747000')]</t>
+          <t>('0:00:22.320000', '0:00:26.180000')</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-274#t=127.449092']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-153#t=60.12</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-64#t=192.882']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-9#t=22.32</t>
         </is>
       </c>
       <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>schubert-winterreise_134</t>
+          <t>schubert-winterreise_113</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>isophonics_136</t>
+          <t>schubert-winterreise_195</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[['C:maj/G', 'F:maj', 'C:maj/G', 'F:maj/A']]</t>
+          <t>['F:min', 'C:maj', 'F:min']</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[['A', 'D/5', 'A', 'D/5']]</t>
+          <t>['F:min/C', 'C', 'F:min/C']</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>[('0:02:22.140000', '0:02:27.860000')]</t>
+          <t>('0:00:00.780000', '0:00:05.260000')</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>[('0:00:00.939000', '0:00:04.875000')]</t>
+          <t>('0:00:44.160000', '0:00:48.160000')</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-134#t=142.14']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-113#t=0.78</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-136#t=0.939']</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-195#t=44.16</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
+        </is>
+      </c>
       <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>isophonics_64</t>
+          <t>schubert-winterreise_82</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>isophonics_165</t>
+          <t>schubert-winterreise_146</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[['D', 'A', 'D', 'A', 'D', 'A', 'D', 'A', 'D', 'A', 'D', 'A', 'D', 'A', 'D', 'A']]</t>
+          <t>['G:min', 'C:min/G', 'G:min']</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[['D', 'A', 'D', 'A', 'D', 'A', 'D', 'A', 'D', 'A', 'D', 'A', 'D', 'A', 'D', 'A']]</t>
+          <t>['B:min', 'E:min/B', 'B:min']</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>[('0:03:12.882000', '0:04:13.747000')]</t>
+          <t>('0:00:00.500000', '0:00:03.900000')</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>[('0:01:56.675034', '0:02:13.857800')]</t>
+          <t>('0:00:27.460000', '0:00:36.020000')</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-64#t=192.882']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-82#t=0.5</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-165#t=116.675034']</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr"/>
-      <c r="J4" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-146#t=27.46</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+        </is>
+      </c>
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>schubert-winterreise_11</t>
+          <t>schubert-winterreise_170</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>isophonics_74</t>
+          <t>schubert-winterreise_150</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>[['C:maj', 'F:maj', 'C:maj/E']]</t>
+          <t>['G:min/D', 'D:7', 'G:min']</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>[['E', 'A', 'E']]</t>
+          <t>['D:min/A', 'A:7', 'D:min']</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>[('0:01:09.860000', '0:01:13.740000')]</t>
+          <t>('0:00:40.820000', '0:00:43.620000')</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>[('0:00:37.995918', '0:00:46.610521')]</t>
+          <t>('0:02:20.480000', '0:02:25.980000')</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-11#t=69.86']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-170#t=40.82</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-74#t=37.995918']</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-150#t=140.48</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
       <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>jaah_78</t>
+          <t>jaah_52</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
+          <t>isophonics_19</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[['Bb', 'F:7', 'Bb'], ['C:min7', 'F:7', 'Bb']]</t>
+          <t>['F', 'F:7', 'Bb']</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[['G:maj', 'D:7/C', 'G:maj/B'], ['A:min7/C', 'D:7', 'G:maj']]</t>
+          <t>['F', 'F:7', 'Bb']</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>[('0:00:49.560000', '0:00:55.720000'), ('0:00:40.640000', '0:00:48.100000')]</t>
+          <t>('0:00:29.470000', '0:00:32.220000')</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>[('0:01:12.520000', '0:01:23.280000'), ('0:01:08.800000', '0:01:16.200000')]</t>
+          <t>('0:00:38.438956', '0:00:41.945170')</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-78#t=49.56', 'https://soundcloud.com/jacopo-de-berardinis/jaah-78#t=40.64']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-52#t=29.47</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-170#t=72.52', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-170#t=68.8']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-19#t=38.438956</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
-      <c r="J6" t="inlineStr">
-        <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>jaah_29</t>
+          <t>schubert-winterreise_141</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>isophonics_149</t>
+          <t>schubert-winterreise_86</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[['Ab', 'Db', 'Ab']]</t>
+          <t>['F:maj/C', 'C:7', 'F:maj']</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[['B', 'E', 'B']]</t>
+          <t>['G:maj/D', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>[('0:01:56.690000', '0:02:02.570000')]</t>
+          <t>('0:01:12.640000', '0:01:23.380000')</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>[('0:00:01.421269', '0:00:26.162131')]</t>
+          <t>('0:00:16.240000', '0:00:18.880000')</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-29#t=116.69']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-141#t=72.64</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-149#t=1.421269']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-86#t=16.24</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
-      <c r="J7" t="inlineStr"/>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_185</t>
+          <t>schubert-winterreise_137</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>schubert-winterreise_59</t>
+          <t>schubert-winterreise_41</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[['B:min', 'F#:maj', 'B:min']]</t>
+          <t>['A:min', 'E:7', 'A:min']</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[['E:min', 'B:maj', 'E:min']]</t>
+          <t>['B:min', 'F#:7/C#', 'B:min/D']</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>[('0:00:13.740000', '0:00:22.560000')]</t>
+          <t>('0:00:19.980000', '0:00:28.900000')</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>[('0:01:29.080000', '0:01:38.100000')]</t>
+          <t>('0:00:00.660000', '0:00:02.680000')</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-185#t=13.74']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-137#t=19.98</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-59#t=89.08']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-41#t=0.66</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>spotify:track:2g41AZ58LFdQLxmWx82ujI</t>
+          <t>spotify:track:3OD2uwEUQKg0WyW9Lewata</t>
         </is>
       </c>
       <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_89</t>
+          <t>schubert-winterreise_203</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>schubert-winterreise_187</t>
+          <t>isophonics_123</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>[['G:maj', 'G:maj/B', 'D:7', 'G:maj']]</t>
+          <t>['G:maj', 'C:maj/G', 'G:maj']</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>[['C', 'C/G', 'G:7', 'C']]</t>
+          <t>['E', 'A', 'E']</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>[('0:00:20.740000', '0:00:23.800000')]</t>
+          <t>('0:00:18.260000', '0:00:24.820000')</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>[('0:03:55.320000', '0:04:02.100000')]</t>
+          <t>('0:00:08.413696', '0:00:11.072593')</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-89#t=20.74']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-203#t=18.26</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-187#t=235.32']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-123#t=8.413696</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>spotify:track:4lrfYSnZmpXdCWuWqVo8L0</t>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
         </is>
       </c>
       <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>isophonics_128</t>
+          <t>isophonics_157</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>isophonics_76</t>
+          <t>schubert-winterreise_166</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>[['C', 'A:min', 'G']]</t>
+          <t>['E', 'A', 'E']</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>[['G', 'E:min', 'D']]</t>
+          <t>['D:maj', 'G:maj', 'D:maj/F#']</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>[('0:00:06.690592', '0:00:10.634761')]</t>
+          <t>('0:00:02.612267', '0:00:17.443474')</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>[('0:00:38.933000', '0:00:43.712000')]</t>
+          <t>('0:01:07.140000', '0:01:10.820000')</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-128#t=6.690592']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-157#t=2.612267</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-76#t=38.933']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-166#t=67.14</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>jaah_74</t>
+          <t>isophonics_2</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>schubert-winterreise_84</t>
+          <t>isophonics_140</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>[['Bb:7', 'Eb', 'Eb:7', 'Ab']]</t>
+          <t>['Bb:maj', 'Eb:maj', 'Bb:maj', 'Eb:maj', 'Bb:maj']</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>[['A#:7', 'D#:maj', 'D#:7', 'G#:maj']]</t>
+          <t>['G', 'C', 'G', 'C', 'G']</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>[('0:00:05.650000', '0:00:08.920000')]</t>
+          <t>('0:03:37.493000', '0:03:43.713000')</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>[('0:01:04.580000', '0:01:18.840000')]</t>
+          <t>('0:00:00.465952', '0:00:08.500330')</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-74#t=5.65']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-2#t=217.493</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-84#t=64.58']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-140#t=0.465952</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>spotify:track:3VbGCXWRiouAq8VyMYN2MI</t>
+        </is>
+      </c>
+      <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_34</t>
+          <t>jaah_62</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>schubert-winterreise_202</t>
+          <t>jaah_50</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>[['C/G', 'G:7', 'C']]</t>
+          <t>['G:min7', 'C:7', 'F:maj7']</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>[['F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>['Eb:min7', 'Ab:7', 'Db:maj7']</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>[('0:04:03.440000', '0:04:09.260000')]</t>
+          <t>('0:00:10.280000', '0:00:12.630000')</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>[('0:01:03.100000', '0:01:04.320000')]</t>
+          <t>('0:00:16.600000', '0:00:21.740000')</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-34#t=243.44']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-62#t=10.28</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-202#t=63.1']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-50#t=16.6</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>schubert-winterreise_170</t>
+          <t>schubert-winterreise_129</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>jaah_7</t>
+          <t>schubert-winterreise_92</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>[['G:maj/D', 'A:min7/C', 'D:7'], ['A:min7/C', 'D:7', 'G:maj']]</t>
+          <t>['F:min', 'C:7', 'F:min']</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>[['Eb', 'F:min7', 'Bb:7'], ['F:min7', 'Bb:7', 'Eb']]</t>
+          <t>['B:min', 'F#:7/C#', 'B:min/D']</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>[('0:01:07.840000', '0:01:12.520000'), ('0:01:08.800000', '0:01:16.200000')]</t>
+          <t>('0:00:08.200000', '0:00:12.660000')</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>[('0:00:09.530000', '0:00:14.240000'), ('0:00:08.350000', '0:00:11.880000')]</t>
+          <t>('0:00:00.360000', '0:00:02.440000')</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-170#t=67.84', 'https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-170#t=68.8']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-129#t=8.2</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/jaah-7#t=9.53', 'https://soundcloud.com/jacopo-de-berardinis/jaah-7#t=8.35']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-92#t=0.36</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+          <t>spotify:track:1nvxQGWCnikMK7a4HYQvSx</t>
         </is>
       </c>
       <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>schubert-winterreise_147</t>
+          <t>jaah_32</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>isophonics_53</t>
+          <t>schubert-winterreise_170</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>[['A:maj/E', 'E:7', 'A:maj']]</t>
+          <t>['G', 'D:7', 'G']</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>[['A/3', 'E:7', 'A']]</t>
+          <t>['G:maj', 'D:7/C', 'G:maj/B']</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>[('0:00:19.780000', '0:00:23.120000')]</t>
+          <t>('0:00:11.550000', '0:00:25.740000')</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>[('0:00:58.557000', '0:01:02.834000')]</t>
+          <t>('0:01:12.520000', '0:01:23.280000')</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-147#t=19.78']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-32#t=11.55</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/isophonics-53#t=58.557']</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>spotify:track:0XfunCHFEeQnzm4NaY8rJr</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr"/>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-170#t=72.52</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>spotify:track:68YORkKP9uvlOQFMZZZwH5</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_96</t>
+          <t>jaah_3</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>schubert-winterreise_31</t>
+          <t>schubert-winterreise_23</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>[['C:maj', 'F:7/D#', 'A#:maj/D', 'F:maj/C', 'C:7', 'F:maj']]</t>
+          <t>['Bb:7', 'Eb', 'Bb:7', 'Eb', 'Bb:7', 'Eb']</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>[['D:maj', 'G:7', 'C:maj', 'G:maj', 'D:7', 'G:maj']]</t>
+          <t>['D:7', 'G:maj', 'D:7', 'G:maj', 'D:7', 'G:maj']</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>[('0:01:03.880000', '0:01:19')]</t>
+          <t>('0:00:30.500000', '0:00:41.370000')</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>[('0:00:03.900000', '0:00:16.080000')]</t>
+          <t>('0:00:29.020000', '0:00:40.820000')</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-96#t=63.88']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/jaah-3#t=30.5</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-31#t=3.9']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-23#t=29.02</t>
         </is>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_121</t>
+          <t>isophonics_69</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>schubert-winterreise_14</t>
+          <t>schubert-winterreise_72</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>[['C:min/G', 'G', 'C:min']]</t>
+          <t>['E', 'B:9', 'E']</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>[['D:min', 'A:maj', 'D:min']]</t>
+          <t>['C:maj', 'G:9', 'C:maj/G']</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>[('0:00:15.060000', '0:00:23.160000')]</t>
+          <t>('0:00:33.711833', '0:00:45.368251')</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>[('0:00:10.560000', '0:00:17.340000')]</t>
+          <t>('0:00:43.680000', '0:00:46.900000')</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-121#t=15.06']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/isophonics-69#t=33.711833</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-14#t=10.56']</t>
+          <t>https://soundcloud.com/jacopo-de-berardinis/schubert-winterreise-72#t=43.68</t>
         </is>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
